--- a/docs/PT2/PT2_14.08.2024_output.xlsx
+++ b/docs/PT2/PT2_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731604395.9219334</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731604396.5499048</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731604395.9219334.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731604396.5499048.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>282.96</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>282.21</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.75</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731604396.7364502</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731604396.7364502.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731604396.7364502.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.53</v>
       </c>
-      <c r="J4" t="n">
-        <v>282.53</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>282.27</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731604403.5588536</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731604404.198962</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731604403.5588536.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731604404.198962.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.96</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>282.21</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.75</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731604404.3799102</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731604406.3180702</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731604404.3799102.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731604406.3180702.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.53</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.91</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.380000000000052</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731604406.3320312</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731604406.860233</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731604406.3320312.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731604406.860233.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.91</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.87</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.04000000000002046</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731604412.4912236</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731604413.0588233</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731604412.4912236.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731604413.0588233.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.75</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.34</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.410000000000025</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -843,95 +895,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731604413.8908572</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731604413.8908572.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731604413.8908572.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.26</v>
       </c>
-      <c r="J9" t="n">
-        <v>283.26</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>282.91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731604415.5278337</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731604415.9854016</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731604415.5278337.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731604415.9854016.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>131.09</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>130.97</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -939,95 +1003,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731604423.4266715</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731604423.4266715.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731604423.4266715.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>130.86</v>
       </c>
-      <c r="J11" t="n">
-        <v>130.86</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731604425.0868013</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731604425.3804193</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731604425.0868013.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731604425.3804193.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6475</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6470</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1035,51 +1111,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731604426.952506</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731604428.4906473</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731604426.952506.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731604428.4906473.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6513</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6512.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1087,51 +1169,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731604429.0227</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731604432.0778022</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731604429.0227.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731604432.0778022.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6506.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6466</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-40.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -1139,95 +1227,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731604432.0947573</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731604432.0947573.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731604432.0947573.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6466</v>
       </c>
-      <c r="J15" t="n">
-        <v>6466</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>6461</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731604434.6919525</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731604435.9083962</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731604434.6919525.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731604435.9083962.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>502.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>504.45</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.849999999999966</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1235,51 +1335,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731604438.5851343</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731604438.681987</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731604438.5851343.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731604438.681987.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>504.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>504.55</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.25</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1287,95 +1393,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731604441.2183537</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731604441.2183537.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731604441.2183537.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>501.3</v>
       </c>
-      <c r="J18" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>501.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731604441.708947</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731604442.8662517</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731604441.708947.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731604442.8662517.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>226.17</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>226.02</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1383,51 +1501,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731604444.2020528</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731604444.8076556</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731604444.2020528.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731604444.8076556.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>225.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>225.66</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1435,51 +1559,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731604445.273843</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731604446.073956</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731604445.273843.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731604446.073956.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>225.62</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>225.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1487,95 +1617,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731604449.9461713</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731604449.9461713.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731604449.9461713.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>224.54</v>
       </c>
-      <c r="J22" t="n">
-        <v>224.54</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>224.3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2399999999999807</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731604455.9427543</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731604458.1895437</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731604455.9427543.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731604458.1895437.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1066.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1060.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-5.400000000000091</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -1583,51 +1725,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731604458.998475</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731604459.0619159</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731604458.998475.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731604459.0619159.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1059.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1057.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.600000000000136</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1635,95 +1783,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731604459.1198745</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731604459.1198745.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731604459.1198745.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1058.2</v>
       </c>
-      <c r="J25" t="n">
-        <v>1058.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1060</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731604466.7976527</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731604467.4023283</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731604466.7976527.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731604467.4023283.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>12.153</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>12.104</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.04900000000000126</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1731,51 +1891,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731604469.2704837</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731604469.5197864</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731604469.2704837.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731604469.5197864.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>127.36</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>127.1</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2600000000000051</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1783,51 +1949,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731604469.6484957</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731604469.6986482</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731604469.6484957.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731604469.6986482.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>127.1</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>127</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1835,51 +2007,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731604470.7070334</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731604471.8725376</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731604470.7070334.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731604471.8725376.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>126.88</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>127.28</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1887,51 +2065,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731604473.375131</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731604473.6766117</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731604473.375131.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731604473.6766117.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>127.28</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>127.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1939,95 +2123,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731604474.6103346</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731604474.6103346.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731604474.6103346.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>127.26</v>
       </c>
-      <c r="J31" t="n">
-        <v>127.26</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>126.16</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1.100000000000009</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731604480.0228455</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731604481.6144989</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731604480.0228455.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731604481.6144989.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>164.94</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>165.16</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2035,51 +2231,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731604490.035919</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731604492.2015214</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731604490.035919.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731604492.2015214.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>50.58</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>50.535</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.04500000000000171</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2087,51 +2289,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731604493.8251414</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731604494.2351794</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731604493.8251414.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731604494.2351794.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>50.315</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>50.18</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.134999999999998</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2139,95 +2347,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731604494.7269776</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731604494.7269776.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731604494.7269776.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>50.215</v>
       </c>
-      <c r="J35" t="n">
-        <v>50.215</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>50.14</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.07500000000000284</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731604502.4229865</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731604502.698906</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731604502.4229865.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731604502.698906.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1404.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1398.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2235,95 +2455,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731604503.3976357</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731604503.3976357.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731604503.3976357.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1400.8</v>
       </c>
-      <c r="J37" t="n">
-        <v>1400.8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1401</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731604509.0342646</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731604509.309682</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731604509.0342646.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731604509.309682.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>59.7</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>59.72</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2331,51 +2563,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731604511.5959957</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731604511.6595151</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731604511.5959957.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731604511.6595151.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.62</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>59.64</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2383,51 +2621,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731604511.7234888</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731604512.677866</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731604511.7234888.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731604512.677866.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>59.63</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>59.5</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2435,95 +2679,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731604512.732692</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731604512.732692.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731604512.732692.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>59.55</v>
       </c>
-      <c r="J41" t="n">
-        <v>59.55</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>59.59</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731604513.4896605</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731604513.9264872</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731604513.4896605.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731604513.9264872.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>101.45</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>101.59</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2531,51 +2787,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731604518.8733037</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731604520.408001</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731604518.8733037.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731604520.408001.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>101.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>101.53</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.269999999999996</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -2583,51 +2845,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731604522.2024581</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731604522.2792826</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731604522.2024581.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731604522.2792826.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>101.19</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>101.09</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2635,139 +2903,157 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731604522.4331918</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731604522.4331918.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731604522.4331918.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>101.09</v>
       </c>
-      <c r="J45" t="n">
-        <v>101.09</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.06</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731604529.4193244</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731604529.4193244.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731604529.4193244.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>56.87</v>
       </c>
-      <c r="J46" t="n">
-        <v>56.87</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>56.71</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731604534.2604327</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731604534.9188757</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731604534.2604327.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731604534.9188757.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>158.3</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>157.84</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2775,51 +3061,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731604535.562192</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731604536.1828275</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731604535.562192.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731604536.1828275.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>157.7</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>157.44</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2827,95 +3119,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731604537.7613256</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731604537.7613256.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731604537.7613256.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>156.88</v>
       </c>
-      <c r="J49" t="n">
-        <v>156.88</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>156.98</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731604546.966335</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731604547.8682525</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731604546.966335.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731604547.8682525.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>20.906</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>20.882</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.02399999999999736</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2923,95 +3227,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731604554.2939036</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731604554.2939036.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731604554.2939036.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>20.768</v>
       </c>
-      <c r="J51" t="n">
-        <v>20.768</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>20.717</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.05100000000000193</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731604555.151991</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731604555.4850867</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731604555.151991.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731604555.4850867.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>693.8</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>694.95</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>1.150000000000091</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3019,51 +3335,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731604559.1203394</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731604561.0033603</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731604559.1203394.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731604561.0033603.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>691.95</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>693.05</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.099999999999909</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3071,51 +3393,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731604562.542421</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731604562.7602792</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731604562.542421.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731604562.7602792.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>691.25</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>690.75</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.5</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3123,44 +3451,50 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731604570.8592546</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731604570.8592546.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731604570.8592546.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>156.71</v>
       </c>
-      <c r="J55" t="n">
-        <v>156.71</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>156.26</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.4500000000000171</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -3221,19 +3555,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1799999999999926</v>
+        <v>-0.9200000000000159</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03599999999999852</v>
+        <v>-0.1840000000000032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.13</v>
+        <v>-0.73</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="3">
@@ -3243,19 +3577,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2600000000000477</v>
+        <v>0.08999999999991815</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05200000000000955</v>
+        <v>0.01799999999998363</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.09</v>
+        <v>0.03</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -3265,19 +3599,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03000000000000114</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.007500000000000284</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-2.775557561562891e-17</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -3287,19 +3621,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-46</v>
+        <v>-41</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-11.5</v>
+        <v>-10.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.71</v>
+        <v>-0.63</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.18</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="6">
@@ -3309,19 +3643,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4099999999999966</v>
+        <v>0.6499999999999773</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1024999999999991</v>
+        <v>0.1624999999999943</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3331,19 +3665,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02250000000000085</v>
+        <v>0.01249999999999929</v>
       </c>
       <c r="E7" t="n">
-        <v>0.16</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -3375,19 +3709,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08999999999999631</v>
+        <v>0.1649999999999991</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02999999999999877</v>
+        <v>0.05499999999999972</v>
       </c>
       <c r="E9" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="10">
@@ -3397,19 +3731,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.6200000000000045</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2399999999999996</v>
+        <v>0.2066666666666682</v>
       </c>
       <c r="E10" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">
@@ -3419,19 +3753,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.799999999999955</v>
+        <v>-5.599999999999909</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.266666666666652</v>
+        <v>-1.866666666666636</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.36</v>
+        <v>-0.53</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="12">
@@ -3441,19 +3775,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.599999999999966</v>
+        <v>-1.799999999999955</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.533333333333322</v>
+        <v>-0.5999999999999849</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.32</v>
+        <v>-0.36</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="13">
@@ -3463,19 +3797,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02399999999999736</v>
+        <v>0.02700000000000458</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01199999999999868</v>
+        <v>0.01350000000000229</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3485,19 +3819,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.599999999999909</v>
+        <v>6.399999999999864</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>3.299999999999955</v>
+        <v>3.199999999999932</v>
       </c>
       <c r="E14" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="F14" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="15">
@@ -3507,19 +3841,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1200000000000045</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06000000000000227</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.09</v>
+        <v>-0.03999999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="16">
@@ -3529,19 +3863,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.75</v>
+        <v>1.009999999999991</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.375</v>
+        <v>0.5049999999999955</v>
       </c>
       <c r="E16" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="F16" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="17">
@@ -3573,19 +3907,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
@@ -3595,19 +3929,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.4500000000000171</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.4500000000000171</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="20">
